--- a/Timing Mandelbrot.xlsx
+++ b/Timing Mandelbrot.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>CPU</t>
   </si>
@@ -50,9 +50,6 @@
     <t>COLORTABLE_SIZE</t>
   </si>
   <si>
-    <t>TIME</t>
-  </si>
-  <si>
     <t>GPU</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,9 +92,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,8 +383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,7 +396,7 @@
     <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -404,7 +405,7 @@
     <col min="14" max="14" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -413,7 +414,7 @@
         <v>0</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -439,7 +440,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>1</v>
@@ -463,7 +464,7 @@
         <v>7</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -512,6 +513,9 @@
       <c r="P3" s="1">
         <v>1024</v>
       </c>
+      <c r="Q3" s="1">
+        <v>114.994218</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -558,6 +562,9 @@
       </c>
       <c r="P4" s="1">
         <v>1024</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>140.41171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -606,6 +613,9 @@
       <c r="P5" s="1">
         <v>1024</v>
       </c>
+      <c r="Q5" s="1">
+        <v>128.41249500000001</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -653,6 +663,9 @@
       <c r="P6" s="1">
         <v>1024</v>
       </c>
+      <c r="Q6" s="1">
+        <v>127.91550700000001</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -700,6 +713,9 @@
       <c r="P7" s="1">
         <v>1024</v>
       </c>
+      <c r="Q7" s="1">
+        <v>136.44489300000001</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -747,6 +763,9 @@
       <c r="P8" s="1">
         <v>1024</v>
       </c>
+      <c r="Q8" s="1">
+        <v>175.72036600000001</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -794,6 +813,9 @@
       <c r="P9" s="1">
         <v>1024</v>
       </c>
+      <c r="Q9" s="1">
+        <v>144.45042699999999</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -841,6 +863,9 @@
       <c r="P10" s="1">
         <v>1024</v>
       </c>
+      <c r="Q10" s="1">
+        <v>136.42904200000001</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -888,6 +913,9 @@
       <c r="P11" s="1">
         <v>1024</v>
       </c>
+      <c r="Q11" s="1">
+        <v>130.23807600000001</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -911,7 +939,7 @@
       <c r="G12" s="1">
         <v>1024</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <v>58611.117652000001</v>
       </c>
       <c r="J12" s="1">
@@ -934,6 +962,9 @@
       </c>
       <c r="P12" s="1">
         <v>1024</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>477.12492900000001</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -982,6 +1013,9 @@
       <c r="P13" s="1">
         <v>1024</v>
       </c>
+      <c r="Q13" s="1">
+        <v>144.34178499999999</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1029,6 +1063,9 @@
       <c r="P14" s="1">
         <v>1024</v>
       </c>
+      <c r="Q14" s="1">
+        <v>150.36252899999999</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -1075,6 +1112,9 @@
       </c>
       <c r="P15" s="1">
         <v>1024</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>148.003219</v>
       </c>
     </row>
   </sheetData>

--- a/Timing Mandelbrot.xlsx
+++ b/Timing Mandelbrot.xlsx
@@ -61,7 +61,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -95,7 +95,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,10 +406,12 @@
     <col min="15" max="15" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="18" width="9.140625" style="1"/>
+    <col min="19" max="19" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -467,7 +469,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>800</v>
       </c>
@@ -517,7 +519,7 @@
         <v>114.994218</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1024</v>
       </c>
@@ -567,7 +569,7 @@
         <v>140.41171</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1280</v>
       </c>
@@ -617,7 +619,7 @@
         <v>128.41249500000001</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1600</v>
       </c>
@@ -667,7 +669,7 @@
         <v>127.91550700000001</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1920</v>
       </c>
@@ -717,7 +719,7 @@
         <v>136.44489300000001</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1920</v>
       </c>
@@ -767,7 +769,7 @@
         <v>175.72036600000001</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1920</v>
       </c>
@@ -817,7 +819,7 @@
         <v>144.45042699999999</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1920</v>
       </c>
@@ -867,7 +869,7 @@
         <v>136.42904200000001</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1920</v>
       </c>
@@ -917,7 +919,7 @@
         <v>130.23807600000001</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3840</v>
       </c>
@@ -966,8 +968,11 @@
       <c r="Q12" s="1">
         <v>477.12492900000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S12" s="1">
+        <v>348.92853300000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>3840</v>
       </c>
@@ -1017,7 +1022,7 @@
         <v>144.34178499999999</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3840</v>
       </c>
@@ -1067,7 +1072,7 @@
         <v>150.36252899999999</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>3840</v>
       </c>
